--- a/Data/Output/WITransactionData.xlsx
+++ b/Data/Output/WITransactionData.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="101">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="102">
   <x:si>
     <x:t>WIID</x:t>
   </x:si>
@@ -40,19 +40,22 @@
     <x:t>WI2</x:t>
   </x:si>
   <x:si>
+    <x:t>Completed</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2020-08-13</x:t>
+  </x:si>
+  <x:si>
+    <x:t>94994450</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2018-06-04</x:t>
+  </x:si>
+  <x:si>
+    <x:t>94994422</x:t>
+  </x:si>
+  <x:si>
     <x:t>Open</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2020-08-13</x:t>
-  </x:si>
-  <x:si>
-    <x:t>94994450</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2018-06-04</x:t>
-  </x:si>
-  <x:si>
-    <x:t>94994422</x:t>
   </x:si>
   <x:si>
     <x:t>2018-01-16</x:t>
@@ -735,15 +738,15 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D4" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="E4" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:5">
       <x:c r="A5" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="B5" s="0" t="s">
         <x:v>6</x:v>
@@ -752,15 +755,15 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D5" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="E5" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:5">
       <x:c r="A6" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="B6" s="0" t="s">
         <x:v>6</x:v>
@@ -769,15 +772,15 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D6" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="E6" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>18</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:5">
       <x:c r="A7" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="B7" s="0" t="s">
         <x:v>6</x:v>
@@ -786,15 +789,15 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D7" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="E7" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>20</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:5">
       <x:c r="A8" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="B8" s="0" t="s">
         <x:v>6</x:v>
@@ -803,15 +806,15 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D8" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="E8" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>22</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:5">
       <x:c r="A9" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="B9" s="0" t="s">
         <x:v>6</x:v>
@@ -820,15 +823,15 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D9" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="E9" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>24</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:5">
       <x:c r="A10" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="B10" s="0" t="s">
         <x:v>6</x:v>
@@ -837,15 +840,15 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D10" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="E10" s="0" t="s">
-        <x:v>25</x:v>
+        <x:v>26</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:5">
       <x:c r="A11" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="B11" s="0" t="s">
         <x:v>6</x:v>
@@ -854,15 +857,15 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D11" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="E11" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>28</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:5">
       <x:c r="A12" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="B12" s="0" t="s">
         <x:v>6</x:v>
@@ -871,15 +874,15 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D12" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="E12" s="0" t="s">
-        <x:v>29</x:v>
+        <x:v>30</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:5">
       <x:c r="A13" s="0" t="s">
-        <x:v>30</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="B13" s="0" t="s">
         <x:v>6</x:v>
@@ -888,15 +891,15 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D13" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="E13" s="0" t="s">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:5">
       <x:c r="A14" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="B14" s="0" t="s">
         <x:v>6</x:v>
@@ -905,15 +908,15 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D14" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="E14" s="0" t="s">
-        <x:v>33</x:v>
+        <x:v>34</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:5">
       <x:c r="A15" s="0" t="s">
-        <x:v>34</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="B15" s="0" t="s">
         <x:v>6</x:v>
@@ -922,15 +925,15 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D15" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="E15" s="0" t="s">
-        <x:v>35</x:v>
+        <x:v>36</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:5">
       <x:c r="A16" s="0" t="s">
-        <x:v>36</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="B16" s="0" t="s">
         <x:v>6</x:v>
@@ -939,15 +942,15 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D16" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="E16" s="0" t="s">
-        <x:v>37</x:v>
+        <x:v>38</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:5">
       <x:c r="A17" s="0" t="s">
-        <x:v>38</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="B17" s="0" t="s">
         <x:v>6</x:v>
@@ -956,15 +959,15 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D17" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="E17" s="0" t="s">
-        <x:v>39</x:v>
+        <x:v>40</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:5">
       <x:c r="A18" s="0" t="s">
-        <x:v>40</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="B18" s="0" t="s">
         <x:v>6</x:v>
@@ -973,15 +976,15 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D18" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="E18" s="0" t="s">
-        <x:v>41</x:v>
+        <x:v>42</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:5">
       <x:c r="A19" s="0" t="s">
-        <x:v>42</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="B19" s="0" t="s">
         <x:v>6</x:v>
@@ -990,15 +993,15 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D19" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="E19" s="0" t="s">
-        <x:v>43</x:v>
+        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:5">
       <x:c r="A20" s="0" t="s">
-        <x:v>44</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="B20" s="0" t="s">
         <x:v>6</x:v>
@@ -1007,15 +1010,15 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D20" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="E20" s="0" t="s">
-        <x:v>45</x:v>
+        <x:v>46</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:5">
       <x:c r="A21" s="0" t="s">
-        <x:v>46</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="B21" s="0" t="s">
         <x:v>6</x:v>
@@ -1024,15 +1027,15 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D21" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="E21" s="0" t="s">
-        <x:v>47</x:v>
+        <x:v>48</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:5">
       <x:c r="A22" s="0" t="s">
-        <x:v>48</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="B22" s="0" t="s">
         <x:v>6</x:v>
@@ -1041,15 +1044,15 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D22" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="E22" s="0" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:5">
       <x:c r="A23" s="0" t="s">
-        <x:v>50</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="B23" s="0" t="s">
         <x:v>6</x:v>
@@ -1058,15 +1061,15 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D23" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="E23" s="0" t="s">
-        <x:v>51</x:v>
+        <x:v>52</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:5">
       <x:c r="A24" s="0" t="s">
-        <x:v>52</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="B24" s="0" t="s">
         <x:v>6</x:v>
@@ -1075,15 +1078,15 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D24" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="E24" s="0" t="s">
-        <x:v>53</x:v>
+        <x:v>54</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:5">
       <x:c r="A25" s="0" t="s">
-        <x:v>54</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="B25" s="0" t="s">
         <x:v>6</x:v>
@@ -1092,15 +1095,15 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D25" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="E25" s="0" t="s">
-        <x:v>55</x:v>
+        <x:v>56</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="1:5">
       <x:c r="A26" s="0" t="s">
-        <x:v>56</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="B26" s="0" t="s">
         <x:v>6</x:v>
@@ -1109,15 +1112,15 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D26" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="E26" s="0" t="s">
-        <x:v>57</x:v>
+        <x:v>58</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:5">
       <x:c r="A27" s="0" t="s">
-        <x:v>58</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="B27" s="0" t="s">
         <x:v>6</x:v>
@@ -1126,15 +1129,15 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D27" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="E27" s="0" t="s">
-        <x:v>59</x:v>
+        <x:v>60</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="1:5">
       <x:c r="A28" s="0" t="s">
-        <x:v>60</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="B28" s="0" t="s">
         <x:v>6</x:v>
@@ -1143,15 +1146,15 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D28" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="E28" s="0" t="s">
-        <x:v>61</x:v>
+        <x:v>62</x:v>
       </x:c>
     </x:row>
     <x:row r="29" spans="1:5">
       <x:c r="A29" s="0" t="s">
-        <x:v>62</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="B29" s="0" t="s">
         <x:v>6</x:v>
@@ -1160,15 +1163,15 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D29" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="E29" s="0" t="s">
-        <x:v>63</x:v>
+        <x:v>64</x:v>
       </x:c>
     </x:row>
     <x:row r="30" spans="1:5">
       <x:c r="A30" s="0" t="s">
-        <x:v>64</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="B30" s="0" t="s">
         <x:v>6</x:v>
@@ -1177,15 +1180,15 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D30" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="E30" s="0" t="s">
-        <x:v>65</x:v>
+        <x:v>66</x:v>
       </x:c>
     </x:row>
     <x:row r="31" spans="1:5">
       <x:c r="A31" s="0" t="s">
-        <x:v>66</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="B31" s="0" t="s">
         <x:v>6</x:v>
@@ -1194,15 +1197,15 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D31" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="E31" s="0" t="s">
-        <x:v>67</x:v>
+        <x:v>68</x:v>
       </x:c>
     </x:row>
     <x:row r="32" spans="1:5">
       <x:c r="A32" s="0" t="s">
-        <x:v>68</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="B32" s="0" t="s">
         <x:v>6</x:v>
@@ -1211,15 +1214,15 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D32" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="E32" s="0" t="s">
-        <x:v>69</x:v>
+        <x:v>70</x:v>
       </x:c>
     </x:row>
     <x:row r="33" spans="1:5">
       <x:c r="A33" s="0" t="s">
-        <x:v>70</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="B33" s="0" t="s">
         <x:v>6</x:v>
@@ -1228,15 +1231,15 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D33" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="E33" s="0" t="s">
-        <x:v>71</x:v>
+        <x:v>72</x:v>
       </x:c>
     </x:row>
     <x:row r="34" spans="1:5">
       <x:c r="A34" s="0" t="s">
-        <x:v>72</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="B34" s="0" t="s">
         <x:v>6</x:v>
@@ -1245,15 +1248,15 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D34" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="E34" s="0" t="s">
-        <x:v>73</x:v>
+        <x:v>74</x:v>
       </x:c>
     </x:row>
     <x:row r="35" spans="1:5">
       <x:c r="A35" s="0" t="s">
-        <x:v>74</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="B35" s="0" t="s">
         <x:v>6</x:v>
@@ -1262,15 +1265,15 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D35" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="E35" s="0" t="s">
-        <x:v>75</x:v>
+        <x:v>76</x:v>
       </x:c>
     </x:row>
     <x:row r="36" spans="1:5">
       <x:c r="A36" s="0" t="s">
-        <x:v>76</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="B36" s="0" t="s">
         <x:v>6</x:v>
@@ -1279,15 +1282,15 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D36" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="E36" s="0" t="s">
-        <x:v>77</x:v>
+        <x:v>78</x:v>
       </x:c>
     </x:row>
     <x:row r="37" spans="1:5">
       <x:c r="A37" s="0" t="s">
-        <x:v>78</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="B37" s="0" t="s">
         <x:v>6</x:v>
@@ -1296,15 +1299,15 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D37" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="E37" s="0" t="s">
-        <x:v>79</x:v>
+        <x:v>80</x:v>
       </x:c>
     </x:row>
     <x:row r="38" spans="1:5">
       <x:c r="A38" s="0" t="s">
-        <x:v>80</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="B38" s="0" t="s">
         <x:v>6</x:v>
@@ -1313,15 +1316,15 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D38" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="E38" s="0" t="s">
-        <x:v>81</x:v>
+        <x:v>82</x:v>
       </x:c>
     </x:row>
     <x:row r="39" spans="1:5">
       <x:c r="A39" s="0" t="s">
-        <x:v>82</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="B39" s="0" t="s">
         <x:v>6</x:v>
@@ -1330,15 +1333,15 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D39" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="E39" s="0" t="s">
-        <x:v>83</x:v>
+        <x:v>84</x:v>
       </x:c>
     </x:row>
     <x:row r="40" spans="1:5">
       <x:c r="A40" s="0" t="s">
-        <x:v>84</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="B40" s="0" t="s">
         <x:v>6</x:v>
@@ -1347,15 +1350,15 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D40" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="E40" s="0" t="s">
-        <x:v>67</x:v>
+        <x:v>68</x:v>
       </x:c>
     </x:row>
     <x:row r="41" spans="1:5">
       <x:c r="A41" s="0" t="s">
-        <x:v>85</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="B41" s="0" t="s">
         <x:v>6</x:v>
@@ -1364,15 +1367,15 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D41" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="E41" s="0" t="s">
-        <x:v>86</x:v>
+        <x:v>87</x:v>
       </x:c>
     </x:row>
     <x:row r="42" spans="1:5">
       <x:c r="A42" s="0" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="B42" s="0" t="s">
         <x:v>6</x:v>
@@ -1381,15 +1384,15 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D42" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="E42" s="0" t="s">
-        <x:v>88</x:v>
+        <x:v>89</x:v>
       </x:c>
     </x:row>
     <x:row r="43" spans="1:5">
       <x:c r="A43" s="0" t="s">
-        <x:v>89</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="B43" s="0" t="s">
         <x:v>6</x:v>
@@ -1398,15 +1401,15 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D43" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="E43" s="0" t="s">
-        <x:v>90</x:v>
+        <x:v>91</x:v>
       </x:c>
     </x:row>
     <x:row r="44" spans="1:5">
       <x:c r="A44" s="0" t="s">
-        <x:v>91</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="B44" s="0" t="s">
         <x:v>6</x:v>
@@ -1415,15 +1418,15 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D44" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="E44" s="0" t="s">
-        <x:v>92</x:v>
+        <x:v>93</x:v>
       </x:c>
     </x:row>
     <x:row r="45" spans="1:5">
       <x:c r="A45" s="0" t="s">
-        <x:v>93</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="B45" s="0" t="s">
         <x:v>6</x:v>
@@ -1432,15 +1435,15 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D45" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="E45" s="0" t="s">
-        <x:v>94</x:v>
+        <x:v>95</x:v>
       </x:c>
     </x:row>
     <x:row r="46" spans="1:5">
       <x:c r="A46" s="0" t="s">
-        <x:v>95</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="B46" s="0" t="s">
         <x:v>6</x:v>
@@ -1449,15 +1452,15 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D46" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="E46" s="0" t="s">
-        <x:v>96</x:v>
+        <x:v>97</x:v>
       </x:c>
     </x:row>
     <x:row r="47" spans="1:5">
       <x:c r="A47" s="0" t="s">
-        <x:v>97</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="B47" s="0" t="s">
         <x:v>6</x:v>
@@ -1466,15 +1469,15 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D47" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="E47" s="0" t="s">
-        <x:v>98</x:v>
+        <x:v>99</x:v>
       </x:c>
     </x:row>
     <x:row r="48" spans="1:5">
       <x:c r="A48" s="0" t="s">
-        <x:v>99</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="B48" s="0" t="s">
         <x:v>6</x:v>
@@ -1483,10 +1486,10 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D48" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="E48" s="0" t="s">
-        <x:v>100</x:v>
+        <x:v>101</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
